--- a/data/trans_dic/P19C11_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Clase-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -986,7 +986,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C11_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.05996062799473159</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0506944764195298</v>
+        <v>0.05069447641952981</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.05559910937169074</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04322204614989963</v>
+        <v>0.04330417043188509</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03647823271542695</v>
+        <v>0.03758384295084021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04218068745974818</v>
+        <v>0.04522218550601383</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08262987668691954</v>
+        <v>0.08252797719536727</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07060870356948491</v>
+        <v>0.07024209157105218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06827114399702558</v>
+        <v>0.07176424443175686</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.04743384083299922</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03332304841523482</v>
+        <v>0.03332304841523483</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04086134887050744</v>
+        <v>0.04086134887050745</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03093241989644725</v>
+        <v>0.03246289161207157</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02073056169569832</v>
+        <v>0.02159150375736513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03069604353238927</v>
+        <v>0.03153580980693607</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06525225541812826</v>
+        <v>0.06911844418011084</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05172468517856992</v>
+        <v>0.05055979267972554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05485637965611431</v>
+        <v>0.05362574608309037</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.03970190977217452</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06312291842036952</v>
+        <v>0.06312291842036953</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04637523737091558</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02568357584792831</v>
+        <v>0.02521806163921298</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04012183784601819</v>
+        <v>0.03899697539250219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03375697635385412</v>
+        <v>0.03475132311131672</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05866180398230274</v>
+        <v>0.0599102625303533</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09466285784609106</v>
+        <v>0.09356404624989957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06351473491958984</v>
+        <v>0.06206741386826989</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05768708162598225</v>
+        <v>0.05768708162598224</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.04067948594689527</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0441916751515678</v>
+        <v>0.04415222765273273</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03077097266010174</v>
+        <v>0.03100626863959065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04126444977742094</v>
+        <v>0.04179329939630059</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07322966815331282</v>
+        <v>0.0754102698871114</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05310393320678804</v>
+        <v>0.05186881116037182</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05976030556215368</v>
+        <v>0.06091949449856329</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.02785223338677356</v>
+        <v>0.02785223338677357</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.04406591898644679</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.015406881946868</v>
+        <v>0.01538254312816212</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03311839831176339</v>
+        <v>0.03335521233942655</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02964988957934243</v>
+        <v>0.02921477637903478</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04529128118050281</v>
+        <v>0.04609266471433481</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05626904123401215</v>
+        <v>0.05665989913290211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.047426228657939</v>
+        <v>0.04818417605108662</v>
       </c>
     </row>
     <row r="19">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02274142252748806</v>
+        <v>0.02156431537067774</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01753133903015894</v>
+        <v>0.01808097454295433</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01222485198135901</v>
+        <v>0.01123273290741826</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04481369764406869</v>
+        <v>0.04251434340265114</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03412294508326786</v>
+        <v>0.03410469550916645</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.0456973057445401</v>
+        <v>0.04569730574454009</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04091696600532693</v>
+        <v>0.04091696600532691</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04323129356198669</v>
+        <v>0.0432312935619867</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03940120708920931</v>
+        <v>0.03925108021195545</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03593808821566059</v>
+        <v>0.03598838036258081</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03894852585280403</v>
+        <v>0.0394108653359707</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0526810232343065</v>
+        <v>0.0527991368261438</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04640120487971608</v>
+        <v>0.04662723782098416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0477008133259763</v>
+        <v>0.0479425329344416</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23394</v>
+        <v>23439</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17558</v>
+        <v>18090</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43134</v>
+        <v>46244</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44724</v>
+        <v>44669</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33986</v>
+        <v>33809</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>69813</v>
+        <v>73385</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14827</v>
+        <v>15561</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8664</v>
+        <v>9024</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27542</v>
+        <v>28296</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31277</v>
+        <v>33131</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21617</v>
+        <v>21130</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>49220</v>
+        <v>48116</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11914</v>
+        <v>11698</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7416</v>
+        <v>7208</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21898</v>
+        <v>22543</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27211</v>
+        <v>27790</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17497</v>
+        <v>17294</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41202</v>
+        <v>40263</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>48421</v>
+        <v>48378</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25749</v>
+        <v>25946</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>79743</v>
+        <v>80765</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80238</v>
+        <v>82627</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>44437</v>
+        <v>43403</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>115486</v>
+        <v>117726</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7855</v>
+        <v>7843</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26280</v>
+        <v>26468</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38644</v>
+        <v>38077</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23092</v>
+        <v>23500</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>44650</v>
+        <v>44960</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>61813</v>
+        <v>62801</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>18619</v>
+        <v>17656</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>18312</v>
+        <v>18886</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2760</v>
+        <v>2536</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>36691</v>
+        <v>34808</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>35642</v>
+        <v>35623</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>130646</v>
+        <v>130149</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>126974</v>
+        <v>127151</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>266755</v>
+        <v>269922</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>174679</v>
+        <v>175071</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>163941</v>
+        <v>164740</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>326699</v>
+        <v>328354</v>
       </c>
     </row>
     <row r="32">
